--- a/WorkItems.xlsx
+++ b/WorkItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelDunn/Desktop/repos/CatanUtility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EECF747-009B-254F-9C55-F8B98DD2EEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523B87-1C64-8A4F-BCC5-3C7302897F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BF179B65-7CB6-904B-A4A6-D3180CDA6DD2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Status</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Get the longest road</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,7 +448,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -467,7 +470,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -478,7 +481,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
